--- a/data/trans_bre/P2C_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Provincia-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.1193535055598556</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.6176754131766466</v>
+        <v>0.6176754131766464</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.315115323497849</v>
+        <v>1.433137327839755</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.084023355229759</v>
+        <v>5.394757502110694</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.457754790614294</v>
+        <v>-6.085471887353198</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.6526252849793621</v>
+        <v>-0.67751605320911</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02668393065710072</v>
+        <v>0.02366627111021254</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1255840980126814</v>
+        <v>0.09108935634959738</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1009120080498516</v>
+        <v>-0.1179134637970075</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.173700151015436</v>
+        <v>-0.1550922914817324</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>23.67165896822221</v>
+        <v>23.29538743596948</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>27.01815394551328</v>
+        <v>26.98268686970048</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.90364333362216</v>
+        <v>16.44108127167772</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.84304362756218</v>
+        <v>4.850405222361178</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5087903200184537</v>
+        <v>0.5005592473468895</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6294591308654981</v>
+        <v>0.6045967916720443</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4225497377648982</v>
+        <v>0.4216617868449622</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.216525221690628</v>
+        <v>2.296715025146547</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.062052568746044</v>
+        <v>4.063754845362944</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>9.978712919236068</v>
+        <v>10.30179913228308</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.962982152916497</v>
+        <v>2.004417872797274</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.907317778690571</v>
+        <v>2.827946869151791</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1587977410695439</v>
+        <v>0.1205652743207574</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.216099748847535</v>
+        <v>0.2255212226888028</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04855590987784573</v>
+        <v>0.04307957570932324</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3053208469222486</v>
+        <v>0.2828645788922473</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>20.01100055552446</v>
+        <v>19.2146448138196</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>27.13363325373562</v>
+        <v>25.33003162798338</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18.136655612988</v>
+        <v>18.50490377724661</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.968130056952798</v>
+        <v>10.00773346997001</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8461577634954934</v>
+        <v>0.7926368495400822</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7350821993355334</v>
+        <v>0.6761856375999432</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5569290182555593</v>
+        <v>0.537448344884439</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.953992055442286</v>
+        <v>1.963932698376003</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.402473261176544</v>
+        <v>-2.027557607864271</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.308828698115233</v>
+        <v>-2.757123945842525</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.090089412323015</v>
+        <v>-4.937360842987509</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.499078272636528</v>
+        <v>-2.611196919384721</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.0300359657961827</v>
+        <v>-0.04028759240406568</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.04179606940607487</v>
+        <v>-0.04558421664184018</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1366326142731526</v>
+        <v>-0.1096024480145591</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3161352044145203</v>
+        <v>-0.3405247022118451</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.26056027010165</v>
+        <v>17.57486718503187</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.29087330525013</v>
+        <v>17.08677408877139</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.2150590321607</v>
+        <v>13.63052658576377</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.341624021723043</v>
+        <v>4.256542239057805</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5610928003211639</v>
+        <v>0.5199816745880791</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3487348988422526</v>
+        <v>0.3667608898248453</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3990997490842246</v>
+        <v>0.4038191073733243</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.093284379468496</v>
+        <v>1.087934532606734</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>14.53378839513598</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.082716542638345</v>
+        <v>4.082716542638348</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05872504947150812</v>
@@ -949,7 +949,7 @@
         <v>0.4265086170959432</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.44696429019284</v>
+        <v>0.4469642901928402</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-7.082404442310605</v>
+        <v>-5.212400455536037</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.33733792536228</v>
+        <v>4.967661110342999</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.747153237423641</v>
+        <v>4.3317756540553</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.533560337344483</v>
+        <v>-1.361421052508351</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1440792274393702</v>
+        <v>-0.1009361381745446</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07535217668406063</v>
+        <v>0.08779331560256229</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.126121483354221</v>
+        <v>0.1105530586262807</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1279888441649046</v>
+        <v>-0.1281846225694955</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.26822802055025</v>
+        <v>11.77948275402644</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>23.40546749839009</v>
+        <v>22.3101181025864</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>25.30673801305606</v>
+        <v>23.88259931182705</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.645512127666411</v>
+        <v>8.808814301895417</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2896882701543713</v>
+        <v>0.2967061540395325</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5349048454287298</v>
+        <v>0.5182258806585011</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9216331357294461</v>
+        <v>0.8367366489841087</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.386920281160626</v>
+        <v>1.414197969983652</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.112820201457433</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-2.369504304410724</v>
+        <v>-2.369504304410723</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2203716105612405</v>
@@ -1049,7 +1049,7 @@
         <v>0.03589093821256954</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.2670861720512612</v>
+        <v>-0.2670861720512611</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.988542155461389</v>
+        <v>-4.907315931059295</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.40192401379131</v>
+        <v>6.052980243407993</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.427185106112724</v>
+        <v>-8.959603715455088</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.813498938557366</v>
+        <v>-7.062283335201195</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1576030697921705</v>
+        <v>-0.1401033719704879</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1403812930542252</v>
+        <v>0.1399869325070786</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1333286985521461</v>
+        <v>-0.1346227259755712</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5797759919603906</v>
+        <v>-0.605689441696899</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.17197129636905</v>
+        <v>18.91838416984223</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>28.37812801810642</v>
+        <v>30.38732953742759</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.65522356403606</v>
+        <v>13.08806180672068</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.614413665996302</v>
+        <v>1.751055234896062</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7972971145293404</v>
+        <v>0.8462291797041617</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8746980658193423</v>
+        <v>0.9607824460107458</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2588623493145095</v>
+        <v>0.252492922150908</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5065848207232757</v>
+        <v>0.2980469314662009</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>1.677181136342548</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.7511968943323066</v>
+        <v>0.7511968943322997</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.05838198591162698</v>
@@ -1149,7 +1149,7 @@
         <v>0.04198855830704405</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.06479512923455007</v>
+        <v>0.06479512923454947</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-13.42574490395546</v>
+        <v>-13.04664281526885</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.037886268093584</v>
+        <v>-2.722605249431817</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-10.1903675067835</v>
+        <v>-10.21785277099839</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-4.164584858203827</v>
+        <v>-4.197570124782126</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2778936900591966</v>
+        <v>-0.2638277712087623</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.0355104274020347</v>
+        <v>-0.05087123037900394</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2203188916800891</v>
+        <v>-0.2243531517491222</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2865485280886345</v>
+        <v>-0.2982276915851708</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.719931908401332</v>
+        <v>8.568946313147411</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>18.32245258629816</v>
+        <v>17.71712306650052</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12.45951062550246</v>
+        <v>12.25995789997209</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.706124070888157</v>
+        <v>5.605965251225746</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2410070338626237</v>
+        <v>0.2258485654294777</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4175938139754368</v>
+        <v>0.3808362969907399</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3614949634558249</v>
+        <v>0.3483373707614962</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.662213954011717</v>
+        <v>0.6333730700507532</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>10.14613916802169</v>
+        <v>9.830291376660949</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.198047621220732</v>
+        <v>-3.300639131942668</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3386384846757374</v>
+        <v>-0.5489511343579931</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3919364173917868</v>
+        <v>-0.29527231224034</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2501545503284791</v>
+        <v>0.2644247087974113</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.04973650678843358</v>
+        <v>-0.05077298693719234</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01017893796793896</v>
+        <v>-0.01266330610222367</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.09139315827037954</v>
+        <v>-0.09376279822859782</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.77141523518465</v>
+        <v>23.41310808977943</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.855941759164756</v>
+        <v>9.660164448180177</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.40491008308947</v>
+        <v>14.39239170131952</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.75548712164909</v>
+        <v>3.731844408612204</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.7785243830205764</v>
+        <v>0.7629989075258604</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1745134669867598</v>
+        <v>0.1681699554976334</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3875768682999875</v>
+        <v>0.3837937362862006</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.802166138271899</v>
+        <v>1.77273143674226</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>6.885569679574033</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9.418069096581819</v>
+        <v>9.418069096581824</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2384425847858125</v>
@@ -1349,7 +1349,7 @@
         <v>0.1322260359358378</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.5271176341307127</v>
+        <v>0.527117634130713</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.898237377779227</v>
+        <v>1.570949649035393</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>8.91527430221605</v>
+        <v>8.406595557249263</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.2035460960501589</v>
+        <v>0.7062857284395514</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5.174641126843008</v>
+        <v>5.095621280749345</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.02411279349265769</v>
+        <v>0.04048153690370793</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1718105778902663</v>
+        <v>0.1726354375523014</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.001950807688707747</v>
+        <v>0.01082968200220444</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2530788779319549</v>
+        <v>0.2491308232802585</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>14.27795992352122</v>
+        <v>14.01638611797484</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>21.54306400171644</v>
+        <v>20.91043585360645</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>12.58972114356011</v>
+        <v>13.39715514678717</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>13.39232648504469</v>
+        <v>12.86245138637057</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4895951446042472</v>
+        <v>0.4653574113228067</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5017133898551426</v>
+        <v>0.4974839949665318</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2614582454293642</v>
+        <v>0.2747292009583734</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8378220707010667</v>
+        <v>0.8337049482795242</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>7.06343100594245</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3.995068453532523</v>
+        <v>3.99506845353252</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2447004917849937</v>
@@ -1449,7 +1449,7 @@
         <v>0.1598120980000941</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.4505698123926681</v>
+        <v>0.4505698123926677</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>5.948571113499551</v>
+        <v>5.822369486978942</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>9.22224108063069</v>
+        <v>9.247014425166332</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.983926817325663</v>
+        <v>3.903708212866944</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.583433366571248</v>
+        <v>2.619879309000922</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1526827317610396</v>
+        <v>0.1497213376571157</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1815353334002002</v>
+        <v>0.1802084357818109</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08883359455911483</v>
+        <v>0.08609934881348835</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.2649700676962833</v>
+        <v>0.2679124763326185</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.23745216471303</v>
+        <v>11.80295032938713</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>15.00061698791231</v>
+        <v>15.43740880437664</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.30340699491546</v>
+        <v>10.12637376304514</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.439203231163221</v>
+        <v>5.488648811446573</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3502811548931603</v>
+        <v>0.3333227627771707</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3138218410017175</v>
+        <v>0.3266798412701926</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2435120910931885</v>
+        <v>0.241309642043383</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.6730716777040975</v>
+        <v>0.6747094603852529</v>
       </c>
     </row>
     <row r="31">
